--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_EnCQR-LSTM_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_EnCQR-LSTM_Lineal_No_Estacionario_ARIMA.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.01341413384562196</v>
+        <v>0.03928680844012988</v>
       </c>
       <c r="D2">
-        <v>0.9084338162809242</v>
+        <v>0.9207881778545348</v>
       </c>
       <c r="E2">
-        <v>0.5514200640200757</v>
+        <v>0.5237534330737024</v>
       </c>
       <c r="F2">
-        <v>0.02126507234542463</v>
+        <v>0.08934961645053097</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01341413384562196</v>
+        <v>0.03928680844012988</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.005250528484589623</v>
+        <v>0.01521214829376549</v>
       </c>
       <c r="E3">
-        <v>0.1081172303501192</v>
+        <v>0.1768162151734904</v>
       </c>
       <c r="F3">
-        <v>0.4043899266878024</v>
+        <v>0.4714513532438007</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9084338162809242</v>
+        <v>0.9207881778545348</v>
       </c>
       <c r="C4">
-        <v>0.005250528484589623</v>
+        <v>0.01521214829376549</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.6046052223179994</v>
+        <v>0.5927375633370369</v>
       </c>
       <c r="F4">
-        <v>0.01060144977556865</v>
+        <v>0.03005681517609471</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5514200640200757</v>
+        <v>0.5237534330737024</v>
       </c>
       <c r="C5">
-        <v>0.1081172303501192</v>
+        <v>0.1768162151734904</v>
       </c>
       <c r="D5">
-        <v>0.6046052223179994</v>
+        <v>0.5927375633370369</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.1116054487500093</v>
+        <v>0.1967716791863061</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.02126507234542463</v>
+        <v>0.08934961645053097</v>
       </c>
       <c r="C6">
-        <v>0.4043899266878024</v>
+        <v>0.4714513532438007</v>
       </c>
       <c r="D6">
-        <v>0.01060144977556865</v>
+        <v>0.03005681517609471</v>
       </c>
       <c r="E6">
-        <v>0.1116054487500093</v>
+        <v>0.1967716791863061</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-2.481793421687193</v>
+        <v>-2.273302295993683</v>
       </c>
       <c r="D2">
-        <v>0.1150751028196191</v>
+        <v>0.1012495069954851</v>
       </c>
       <c r="E2">
-        <v>-0.5960549584231303</v>
+        <v>-0.6539304745123241</v>
       </c>
       <c r="F2">
-        <v>-2.310848015580886</v>
+        <v>-1.825368721786241</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.481793421687193</v>
+        <v>2.273302295993683</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.804109356598102</v>
+        <v>2.764283591989347</v>
       </c>
       <c r="E3">
-        <v>1.609722559560297</v>
+        <v>1.422369511159142</v>
       </c>
       <c r="F3">
-        <v>-0.8345450463491004</v>
+        <v>-0.7401305020702474</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.1150751028196191</v>
+        <v>-0.1012495069954851</v>
       </c>
       <c r="C4">
-        <v>-2.804109356598102</v>
+        <v>-2.764283591989347</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-0.5181322682209926</v>
+        <v>-0.5473795579644489</v>
       </c>
       <c r="F4">
-        <v>-2.565650588801031</v>
+        <v>-2.413911161704107</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5960549584231303</v>
+        <v>0.6539304745123241</v>
       </c>
       <c r="C5">
-        <v>-1.609722559560297</v>
+        <v>-1.422369511159142</v>
       </c>
       <c r="D5">
-        <v>0.5181322682209926</v>
+        <v>0.5473795579644489</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-1.593956174880448</v>
+        <v>-1.355345895474942</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.310848015580886</v>
+        <v>1.825368721786241</v>
       </c>
       <c r="C6">
-        <v>0.8345450463491004</v>
+        <v>0.7401305020702474</v>
       </c>
       <c r="D6">
-        <v>2.565650588801031</v>
+        <v>2.413911161704107</v>
       </c>
       <c r="E6">
-        <v>1.593956174880448</v>
+        <v>1.355345895474942</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_EnCQR-LSTM_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_EnCQR-LSTM_Lineal_No_Estacionario_ARIMA.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.03928680844012988</v>
+        <v>0.3452740851270235</v>
       </c>
       <c r="D2">
-        <v>0.9207881778545348</v>
+        <v>0.2152557041666072</v>
       </c>
       <c r="E2">
-        <v>0.5237534330737024</v>
+        <v>0.9211097076556247</v>
       </c>
       <c r="F2">
-        <v>0.08934961645053097</v>
+        <v>0.6023379055942133</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.03928680844012988</v>
+        <v>0.3452740851270235</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.01521214829376549</v>
+        <v>0.8519655419657104</v>
       </c>
       <c r="E3">
-        <v>0.1768162151734904</v>
+        <v>0.2597256602486069</v>
       </c>
       <c r="F3">
-        <v>0.4714513532438007</v>
+        <v>0.280527011423128</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9207881778545348</v>
+        <v>0.2152557041666072</v>
       </c>
       <c r="C4">
-        <v>0.01521214829376549</v>
+        <v>0.8519655419657104</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.5927375633370369</v>
+        <v>0.2027822462996314</v>
       </c>
       <c r="F4">
-        <v>0.03005681517609471</v>
+        <v>0.2849510302083034</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5237534330737024</v>
+        <v>0.9211097076556247</v>
       </c>
       <c r="C5">
-        <v>0.1768162151734904</v>
+        <v>0.2597256602486069</v>
       </c>
       <c r="D5">
-        <v>0.5927375633370369</v>
+        <v>0.2027822462996314</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.1967716791863061</v>
+        <v>0.7756897679895678</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08934961645053097</v>
+        <v>0.6023379055942133</v>
       </c>
       <c r="C6">
-        <v>0.4714513532438007</v>
+        <v>0.280527011423128</v>
       </c>
       <c r="D6">
-        <v>0.03005681517609471</v>
+        <v>0.2849510302083034</v>
       </c>
       <c r="E6">
-        <v>0.1967716791863061</v>
+        <v>0.7756897679895678</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-2.273302295993683</v>
+        <v>0.9645088352189182</v>
       </c>
       <c r="D2">
-        <v>0.1012495069954851</v>
+        <v>1.276021593728758</v>
       </c>
       <c r="E2">
-        <v>-0.6539304745123241</v>
+        <v>-0.1001787877535928</v>
       </c>
       <c r="F2">
-        <v>-1.825368721786241</v>
+        <v>-0.528655119890433</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.273302295993683</v>
+        <v>-0.9645088352189182</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.764283591989347</v>
+        <v>0.1888192018461856</v>
       </c>
       <c r="E3">
-        <v>1.422369511159142</v>
+        <v>-1.156888524634643</v>
       </c>
       <c r="F3">
-        <v>-0.7401305020702474</v>
+        <v>-1.106348951453919</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.1012495069954851</v>
+        <v>-1.276021593728758</v>
       </c>
       <c r="C4">
-        <v>-2.764283591989347</v>
+        <v>-0.1888192018461856</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-0.5473795579644489</v>
+        <v>-1.31279553074013</v>
       </c>
       <c r="F4">
-        <v>-2.413911161704107</v>
+        <v>-1.095955523963847</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6539304745123241</v>
+        <v>0.1001787877535928</v>
       </c>
       <c r="C5">
-        <v>-1.422369511159142</v>
+        <v>1.156888524634643</v>
       </c>
       <c r="D5">
-        <v>0.5473795579644489</v>
+        <v>1.31279553074013</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-1.355345895474942</v>
+        <v>-0.2884669136341769</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.825368721786241</v>
+        <v>0.528655119890433</v>
       </c>
       <c r="C6">
-        <v>0.7401305020702474</v>
+        <v>1.106348951453919</v>
       </c>
       <c r="D6">
-        <v>2.413911161704107</v>
+        <v>1.095955523963847</v>
       </c>
       <c r="E6">
-        <v>1.355345895474942</v>
+        <v>0.2884669136341769</v>
       </c>
       <c r="F6">
         <v>0</v>
